--- a/db/doc/IndividualStockAcount.xlsx
+++ b/db/doc/IndividualStockAcount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CC8F40-682D-394D-8086-FCEE008548A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70397C89-EA57-D849-91AB-332D41CFD40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
+    <workbookView xWindow="34140" yWindow="500" windowWidth="17060" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualStockAcount" sheetId="2" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>IT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>jiho266</t>
   </si>
@@ -56,9 +53,6 @@
     <t>StockCode</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -83,7 +77,10 @@
     <t>SK하이닉스</t>
   </si>
   <si>
-    <t>EE</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>jiho270</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,83 +453,139 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="2"/>

--- a/db/doc/IndividualStockAcount.xlsx
+++ b/db/doc/IndividualStockAcount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70397C89-EA57-D849-91AB-332D41CFD40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31C1BD-8B5C-3240-A3A2-E12451ABEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="500" windowWidth="17060" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
+    <workbookView xWindow="24740" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualStockAcount" sheetId="2" r:id="rId1"/>
@@ -36,16 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
-  <si>
-    <t>jiho266</t>
-  </si>
-  <si>
-    <t>jiho267</t>
-  </si>
-  <si>
-    <t>jiho268</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -62,25 +53,34 @@
     <t>005930</t>
   </si>
   <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
     <t>035420</t>
   </si>
   <si>
-    <t>NAVER</t>
-  </si>
-  <si>
     <t>000660</t>
   </si>
   <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>jiho270</t>
+    <t>user270</t>
+  </si>
+  <si>
+    <t>hoho222</t>
+  </si>
+  <si>
+    <t>nick0422</t>
+  </si>
+  <si>
+    <t>jiho264</t>
+  </si>
+  <si>
+    <t>hseop884</t>
+  </si>
+  <si>
+    <t>086520</t>
+  </si>
+  <si>
+    <t>247540</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,30 +453,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -487,13 +484,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>4</v>
@@ -504,13 +498,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -521,13 +512,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -538,13 +526,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -555,13 +540,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -572,13 +554,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -588,10 +567,32 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>

--- a/db/doc/IndividualStockAcount.xlsx
+++ b/db/doc/IndividualStockAcount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31C1BD-8B5C-3240-A3A2-E12451ABEDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21ABC7-EB29-914E-AC3F-2B7BFBFEF508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24740" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>247540</t>
+  </si>
+  <si>
+    <t>009150</t>
+  </si>
+  <si>
+    <t>336370</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,10 +601,32 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>

--- a/db/doc/IndividualStockAcount.xlsx
+++ b/db/doc/IndividualStockAcount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiho/Desktop/DB_API_assignment/db/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF21ABC7-EB29-914E-AC3F-2B7BFBFEF508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A1A0FD-89E7-7743-91C9-10B391EC427D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24740" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
+    <workbookView xWindow="-1820" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{0F52580C-D0CC-404F-9E7A-49470998494F}"/>
   </bookViews>
   <sheets>
     <sheet name="IndividualStockAcount" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,236 @@
   </si>
   <si>
     <t>336370</t>
+  </si>
+  <si>
+    <t>008830</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>048470</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>084695</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>007680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>290120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>023910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001440</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>224060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>227420</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>086450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>099410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>088130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>032960</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109860</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>016670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>214680</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>377190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>196490</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>039840</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310870</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>043360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>317120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>042510</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>388790</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>347700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>217500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>038390</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>294140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>014100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>078160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>065650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>138040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>289170</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xotn531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jitae19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>taeji19</t>
+  </si>
+  <si>
+    <t>taeji19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hoho222</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick0422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimlee121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hseop884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xotn531</t>
   </si>
 </sst>
 </file>
@@ -446,13 +676,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560722BA-D12D-A149-87A2-93DB0E29A4CC}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="157" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
@@ -629,62 +859,694 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="2"/>
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43">
+        <v>9</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>